--- a/xlsx/country_comparison/split_few_dem.xlsx
+++ b/xlsx/country_comparison/split_few_dem.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cities urbanicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural urbanicity</t>
   </si>
   <si>
     <t xml:space="preserve">Tertiary diploma</t>
@@ -446,13 +443,10 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.1721363663758</v>
@@ -470,36 +464,33 @@
         <v>0.169725385291425</v>
       </c>
       <c r="G2" t="n">
-        <v>0.18073350779526</v>
+        <v>0.171337511178592</v>
       </c>
       <c r="H2" t="n">
-        <v>0.171337511178592</v>
+        <v>0.177815201137402</v>
       </c>
       <c r="I2" t="n">
-        <v>0.177815201137402</v>
+        <v>0.18976851174278</v>
       </c>
       <c r="J2" t="n">
-        <v>0.18976851174278</v>
+        <v>0.161286699127742</v>
       </c>
       <c r="K2" t="n">
-        <v>0.161286699127742</v>
+        <v>0.166927940031079</v>
       </c>
       <c r="L2" t="n">
-        <v>0.166927940031079</v>
+        <v>0.168299033559287</v>
       </c>
       <c r="M2" t="n">
-        <v>0.168299033559287</v>
+        <v>0.181219806627202</v>
       </c>
       <c r="N2" t="n">
-        <v>0.181219806627202</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.174778628081766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.196289911390766</v>
@@ -517,36 +508,33 @@
         <v>0.190587148152906</v>
       </c>
       <c r="G3" t="n">
-        <v>0.19282437483977</v>
+        <v>0.194985860191247</v>
       </c>
       <c r="H3" t="n">
-        <v>0.194985860191247</v>
+        <v>0.179697923635919</v>
       </c>
       <c r="I3" t="n">
-        <v>0.179697923635919</v>
+        <v>0.182775828160387</v>
       </c>
       <c r="J3" t="n">
-        <v>0.182775828160387</v>
+        <v>0.255516761744445</v>
       </c>
       <c r="K3" t="n">
-        <v>0.255516761744445</v>
+        <v>0.202919253884456</v>
       </c>
       <c r="L3" t="n">
-        <v>0.202919253884456</v>
+        <v>0.201904461791913</v>
       </c>
       <c r="M3" t="n">
-        <v>0.201904461791913</v>
+        <v>0.17191373010913</v>
       </c>
       <c r="N3" t="n">
-        <v>0.17191373010913</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.186864511804753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.197653629308315</v>
@@ -564,36 +552,33 @@
         <v>0.203307824574035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.184879286728162</v>
+        <v>0.189002304074705</v>
       </c>
       <c r="H4" t="n">
-        <v>0.189002304074705</v>
+        <v>0.20114488954964</v>
       </c>
       <c r="I4" t="n">
-        <v>0.20114488954964</v>
+        <v>0.186678211759942</v>
       </c>
       <c r="J4" t="n">
-        <v>0.186678211759942</v>
+        <v>0.194329522965258</v>
       </c>
       <c r="K4" t="n">
-        <v>0.194329522965258</v>
+        <v>0.196203623986956</v>
       </c>
       <c r="L4" t="n">
-        <v>0.196203623986956</v>
+        <v>0.196306118922512</v>
       </c>
       <c r="M4" t="n">
-        <v>0.196306118922512</v>
+        <v>0.194604461224547</v>
       </c>
       <c r="N4" t="n">
-        <v>0.194604461224547</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.195452760393505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.18446087709465</v>
@@ -611,36 +596,33 @@
         <v>0.187641846217983</v>
       </c>
       <c r="G5" t="n">
-        <v>0.177686179569879</v>
+        <v>0.183151310306033</v>
       </c>
       <c r="H5" t="n">
-        <v>0.183151310306033</v>
+        <v>0.186118004787829</v>
       </c>
       <c r="I5" t="n">
-        <v>0.186118004787829</v>
+        <v>0.185509295422114</v>
       </c>
       <c r="J5" t="n">
-        <v>0.185509295422114</v>
+        <v>0.154772889164855</v>
       </c>
       <c r="K5" t="n">
-        <v>0.154772889164855</v>
+        <v>0.173652758786294</v>
       </c>
       <c r="L5" t="n">
-        <v>0.173652758786294</v>
+        <v>0.175306100498913</v>
       </c>
       <c r="M5" t="n">
-        <v>0.175306100498913</v>
+        <v>0.194092634184573</v>
       </c>
       <c r="N5" t="n">
-        <v>0.194092634184573</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.184727295355144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.249459215830469</v>
@@ -658,30 +640,27 @@
         <v>0.248737795763651</v>
       </c>
       <c r="G6" t="n">
-        <v>0.263876651066929</v>
+        <v>0.261523014249423</v>
       </c>
       <c r="H6" t="n">
-        <v>0.261523014249423</v>
+        <v>0.255223980889211</v>
       </c>
       <c r="I6" t="n">
-        <v>0.255223980889211</v>
+        <v>0.255268152914777</v>
       </c>
       <c r="J6" t="n">
-        <v>0.255268152914777</v>
+        <v>0.2340941269977</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2340941269977</v>
+        <v>0.260296423311214</v>
       </c>
       <c r="L6" t="n">
-        <v>0.260296423311214</v>
+        <v>0.258184285227375</v>
       </c>
       <c r="M6" t="n">
-        <v>0.258184285227375</v>
+        <v>0.258169367854548</v>
       </c>
       <c r="N6" t="n">
-        <v>0.258169367854548</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.258176804364833</v>
       </c>
     </row>
